--- a/R Systems Timesheet.xlsx
+++ b/R Systems Timesheet.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intan.izati\Desktop\ECnet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\80003130\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE9200FA-38BC-484F-BB2A-F66EAD30899F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3726DA2A-EAFA-4FFE-A1AD-92A5058AFFB5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="77">
   <si>
     <t>DATE</t>
   </si>
@@ -65,9 +64,6 @@
     <t>Signed By:</t>
   </si>
   <si>
-    <t>Date           _________________</t>
-  </si>
-  <si>
     <t>Leave Type</t>
   </si>
   <si>
@@ -99,12 +95,180 @@
   </si>
   <si>
     <t>** To be submitted to R Systems Malaysia office on last working day of the mth</t>
+  </si>
+  <si>
+    <t>Syed Al Fazim</t>
+  </si>
+  <si>
+    <t>Maybank</t>
+  </si>
+  <si>
+    <t>1.11.2020</t>
+  </si>
+  <si>
+    <t>2.11.2020</t>
+  </si>
+  <si>
+    <t>3.11.2020</t>
+  </si>
+  <si>
+    <t>4.11.2020</t>
+  </si>
+  <si>
+    <t>5.11.2020</t>
+  </si>
+  <si>
+    <t>6.11.2020</t>
+  </si>
+  <si>
+    <t>7.11.2020</t>
+  </si>
+  <si>
+    <t>8.11.2020</t>
+  </si>
+  <si>
+    <t>9.11.2020</t>
+  </si>
+  <si>
+    <t>10.11.2020</t>
+  </si>
+  <si>
+    <t>11.11.2020</t>
+  </si>
+  <si>
+    <t>12.11.2020</t>
+  </si>
+  <si>
+    <t>13.11.2020</t>
+  </si>
+  <si>
+    <t>14.11.2020</t>
+  </si>
+  <si>
+    <t>15.11.2020</t>
+  </si>
+  <si>
+    <t>16.11.2020</t>
+  </si>
+  <si>
+    <t>17.11.2020</t>
+  </si>
+  <si>
+    <t>18.11.2020</t>
+  </si>
+  <si>
+    <t>19.11.2020</t>
+  </si>
+  <si>
+    <t>20.11.2020</t>
+  </si>
+  <si>
+    <t>21.11.2020</t>
+  </si>
+  <si>
+    <t>22.11.2020</t>
+  </si>
+  <si>
+    <t>23.11.2020</t>
+  </si>
+  <si>
+    <t>24.11.2020</t>
+  </si>
+  <si>
+    <t>25.11.2020</t>
+  </si>
+  <si>
+    <t>26.11.2020</t>
+  </si>
+  <si>
+    <t>27.11.2020</t>
+  </si>
+  <si>
+    <t>28.11.2020</t>
+  </si>
+  <si>
+    <t>29.11.2020</t>
+  </si>
+  <si>
+    <t>30.11.2020</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>STFS Development ( LCS70001)</t>
+  </si>
+  <si>
+    <t>STFS Development for template Terms and Conditions</t>
+  </si>
+  <si>
+    <t>Time Deposit changescin report</t>
+  </si>
+  <si>
+    <t>COF Implementation for Adding ( Host request and response, Logic, Validation and Mapping)</t>
+  </si>
+  <si>
+    <t>COF Implementation for Maintenance ( Host request and response, Logic, validation and Mapping)</t>
+  </si>
+  <si>
+    <t>COF Implementation for Inquiry</t>
+  </si>
+  <si>
+    <t>COF Testing and Delivery</t>
+  </si>
+  <si>
+    <t>COF Conditional changes added for empty and non empty</t>
+  </si>
+  <si>
+    <t>STSF Document ( GFS 10302)</t>
+  </si>
+  <si>
+    <t>STFS Development ( GFS42001)</t>
+  </si>
+  <si>
+    <t>STFS Development ( GFS43001)</t>
+  </si>
+  <si>
+    <t>STFS Terms and conditions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Template document testing </t>
+  </si>
+  <si>
+    <t>STFS Development ( LCS71001)</t>
+  </si>
+  <si>
+    <t>STFS Development ( GFS10303)</t>
+  </si>
+  <si>
+    <t>COF Analysis based on Requirement &amp; STFS Terms and conditions</t>
+  </si>
+  <si>
+    <t>Date           _____03/12/2020____________</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -193,7 +357,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -233,6 +397,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -270,7 +435,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="A picture containing logo&#10;&#10;Description automatically generated">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E39DF70-CDAF-498C-A5FC-34F341CA46F7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7E39DF70-CDAF-498C-A5FC-34F341CA46F7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -599,14 +764,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95BEDC68-A0AE-42D1-A344-2CB63902D3B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A6:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,23 +785,29 @@
   <sheetData>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="15"/>
+        <v>17</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>21</v>
+      </c>
       <c r="C6" s="15"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="15"/>
+        <v>19</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>22</v>
+      </c>
       <c r="C8" s="15"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="15"/>
+        <v>18</v>
+      </c>
+      <c r="B10" s="19">
+        <v>44136</v>
+      </c>
       <c r="C10" s="17"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -661,218 +832,460 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="A13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="7"/>
+      <c r="A14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="4"/>
+      <c r="A16" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="4"/>
+      <c r="A17" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="4"/>
+      <c r="A18" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
+      <c r="A19" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>59</v>
+      </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
+      <c r="A20" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>58</v>
+      </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
+      <c r="A21" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="4"/>
+      <c r="A22" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="4"/>
+      <c r="A23" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="4"/>
+      <c r="A24" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="7"/>
+      <c r="A25" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
+      <c r="A26" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>59</v>
+      </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
+      <c r="A27" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>58</v>
+      </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
+      <c r="A28" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="7"/>
+      <c r="A29" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="4"/>
+      <c r="A30" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="7"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="7"/>
+      <c r="A31" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
+      <c r="A33" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>59</v>
+      </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="7"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
+      <c r="A34" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>58</v>
+      </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
+      <c r="A35" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="4"/>
+      <c r="A36" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="4"/>
+      <c r="A37" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="4"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="7"/>
+      <c r="A38" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="8"/>
-      <c r="B40" s="8"/>
+      <c r="A40" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>59</v>
+      </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="E40" s="7"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="8"/>
-      <c r="B41" s="8"/>
+      <c r="A41" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>58</v>
+      </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="E41" s="4"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="8"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="4"/>
+      <c r="A42" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
@@ -904,7 +1317,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B47" s="12"/>
     </row>
@@ -939,43 +1352,55 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="C54" s="16"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B56" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="C56" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="D56" s="8" t="s">
         <v>13</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="B57" s="4">
+        <v>12</v>
+      </c>
+      <c r="C57" s="4">
+        <v>2</v>
+      </c>
+      <c r="D57" s="4">
+        <v>10</v>
+      </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="B58" s="4">
+        <v>12</v>
+      </c>
+      <c r="C58" s="4">
+        <v>5</v>
+      </c>
+      <c r="D58" s="4">
+        <v>7</v>
+      </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
